--- a/asctb_mapper/Azimuth_CellTypist_PopV_Lung_ASCTB_Crosswalks.xlsx
+++ b/asctb_mapper/Azimuth_CellTypist_PopV_Lung_ASCTB_Crosswalks.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Vikrant\Github_Repositories\scRNA-seq-papers-and-analyses\Vikrant_Analyses\ASCTB_Mapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Vikrant\Github_Repositories\ct-ann-predictive-analytics\asctb_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624EEE3-51EC-4213-A195-F1741845CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B153C4B-D619-4900-94B7-B272B08A2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="641" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="641" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azimuth-HLCAv2Labels_to_ASCTBLa" sheetId="1" r:id="rId1"/>
     <sheet name="Closest (manual) crosswalk" sheetId="4" r:id="rId2"/>
     <sheet name="Cleaner_manual_crosswalk" sheetId="2" r:id="rId3"/>
     <sheet name="Collating_Glorias_Feedback" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Azimuth-HLCAv2Labels_to_ASCTBLa'!$A$1:$L$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cleaner_manual_crosswalk!$A$1:$C$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Collating_Glorias_Feedback!$A$2:$N$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="548">
   <si>
     <t>source</t>
   </si>
@@ -2470,18 +2472,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2498,6 +2488,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2545,7 +2547,47 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7914,8 +7956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25971A9B-58AA-4348-A339-82E43E36C7DE}">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7937,72 +7979,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="22" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="27" t="s">
         <v>547</v>
       </c>
     </row>
@@ -13638,9 +13680,710 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2 B115:B128">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF100EF-9871-4F24-86C5-BB92AC616A94}">
+  <dimension ref="A1:B93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>462</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>374</v>
+      </c>
+      <c r="B50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>468</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>469</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>361</v>
+      </c>
+      <c r="B58" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>477</v>
+      </c>
+      <c r="B64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>483</v>
+      </c>
+      <c r="B65" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>484</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>486</v>
+      </c>
+      <c r="B67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>493</v>
+      </c>
+      <c r="B72" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>494</v>
+      </c>
+      <c r="B73" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>496</v>
+      </c>
+      <c r="B76" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>501</v>
+      </c>
+      <c r="B77" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>502</v>
+      </c>
+      <c r="B79" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>507</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>508</v>
+      </c>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>510</v>
+      </c>
+      <c r="B89" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>514</v>
+      </c>
+      <c r="B90" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>516</v>
+      </c>
+      <c r="B91" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>518</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>519</v>
+      </c>
+      <c r="B93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B93" xr:uid="{8FF100EF-9871-4F24-86C5-BB92AC616A94}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/asctb_mapper/Azimuth_CellTypist_PopV_Lung_ASCTB_Crosswalks.xlsx
+++ b/asctb_mapper/Azimuth_CellTypist_PopV_Lung_ASCTB_Crosswalks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Vikrant\Github_Repositories\ct-ann-predictive-analytics\asctb_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B153C4B-D619-4900-94B7-B272B08A2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293FD185-E69C-4680-A2EE-06DA36E5089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="641" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,13 @@
     <sheet name="Closest (manual) crosswalk" sheetId="4" r:id="rId2"/>
     <sheet name="Cleaner_manual_crosswalk" sheetId="2" r:id="rId3"/>
     <sheet name="Collating_Glorias_Feedback" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Crosswalk" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Azimuth-HLCAv2Labels_to_ASCTBLa'!$A$1:$L$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cleaner_manual_crosswalk!$A$1:$C$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Collating_Glorias_Feedback!$A$2:$N$128</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Crosswalk!$A$2:$N$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="563">
   <si>
     <t>source</t>
   </si>
@@ -1803,6 +1803,51 @@
   </si>
   <si>
     <t>final assignment vs algorithmic suggestions</t>
+  </si>
+  <si>
+    <t>A tissue-resident macrophage found in the alveoli of the lungs. Ingests small inhaled particles resulting in degradation and presentation of the antigen to immunocompetent cells. Markers include F4/80-positive, CD11b-/low, CD11c-positive, CD68-positive, sialoadhesin-positive, dectin-1-positive, MR-positive, CX3CR1-negative.</t>
+  </si>
+  <si>
+    <t>A type I pneumocyte is a flattened, branched pneumocyte that covers more than 98% of the alveolar surface. This large cell has thin (50-100 nm) cytoplasmic extensions to form the air-blood barrier essential for normal gas exchange.</t>
+  </si>
+  <si>
+    <t>A type II pneumocyte is a pneumocyte that modulates the fluid surrounding the alveolar epithelium by secreting and recycling surfactants. This cell type also contributes to tissue repair and can differentiate after injury into a type I pneumocyte. Thicker than squamous alveolar cells, have a rounded apical surface that projects above the level of surrounding epithelium. The free surface is covered by short microvilli.</t>
+  </si>
+  <si>
+    <t>A lymphocyte of B lineage that is capable of B cell mediated immunity.</t>
+  </si>
+  <si>
+    <t>A monocyte that responds rapidly to microbial stimuli by secreting cytokines and antimicrobial factors and which is characterized by high expression of CCR2 in both rodents and humans, negative for the lineage markers CD3, CD19, and CD20, and of larger size than non-classical monocytes.</t>
+  </si>
+  <si>
+    <t>A type of monocyte characterized by low expression of CCR2, low responsiveness to monocyte chemoattractant CCL2/MCP1, low phagocytic activity, and decrease size relative to classical monocytes, but increased co-stimulatory activity. May also play a role in tissue repair.</t>
+  </si>
+  <si>
+    <t>A terminally differentiated, post-mitotic, antibody secreting cell of the B cell lineage with the phenotype CD138-positive, surface immunonoglobulin-negative, and MHC Class II-negative. Plasma cells are oval or round with extensive rough endoplasmic reticulum, a well-developed Golgi apparatus, and a round nucleus having a characteristic cartwheel heterochromatin pattern and are devoted to producing large amounts of immunoglobulin.</t>
+  </si>
+  <si>
+    <t>A basal cell that is part of the epithelium of trachea.</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Epithelial progenitor cell of the lung. Club cells are dome-shaped with short microvilli but no cilia. They function to protect the bronchiolar epithelium. Club cells also multiply and differentiate into ciliated cells to regenerate the bronchiolar epithelium.</t>
+  </si>
+  <si>
+    <t>A mesothelial cell that is part of the visceral pleura.</t>
+  </si>
+  <si>
+    <t>A leukocyte with abundant granules in the cytoplasm.</t>
+  </si>
+  <si>
+    <t>A dendritic cell type of distinct morphology, localization, and surface marker expression (CD123-positive) from other dendritic cell types and associated with early stage immune responses, particularly the release of physiologically abundant amounts of type I interferons in response to infection.</t>
+  </si>
+  <si>
+    <t>An ionocyte that is part of the lung epithelium. The cells from this type are major sources of the CFTR protein in human and mice.</t>
+  </si>
+  <si>
+    <t>final choice vs algorithmic suggestions</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2478,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -2502,6 +2547,9 @@
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2547,27 +2595,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7956,8 +7984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25971A9B-58AA-4348-A339-82E43E36C7DE}">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L128"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13673,6 +13701,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:N128" xr:uid="{25971A9B-58AA-4348-A339-82E43E36C7DE}"/>
   <mergeCells count="4">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -13680,710 +13709,5425 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2 B115:B128">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF100EF-9871-4F24-86C5-BB92AC616A94}">
-  <dimension ref="A1:B93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578F4BE2-79B7-40DE-B42D-54301EBC58E6}">
+  <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.77734375" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="40.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="M2" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0.62599003314971902</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>0.594202280044555</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N3" s="32" t="b">
+        <f>OR(ISBLANK(L3), OR(LOWER(TRIM(L3))=LOWER(TRIM(F3)), LOWER(TRIM(L3))=LOWER(TRIM(J3))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>0.75824147462844804</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>0.75677907466888406</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="32" t="b">
+        <f t="shared" ref="N4:N67" si="0">OR(ISBLANK(L4), OR(LOWER(TRIM(L4))=LOWER(TRIM(F4)), LOWER(TRIM(L4))=LOWER(TRIM(J4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>0.79410052299499501</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>0.57815521955490101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N5" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>0.73842036724090498</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>0.65219819545745805</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" s="32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N7" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>549</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N8" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>550</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N9" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>0.42999994754791199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>0.39352861046790999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="N10" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>551</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N11" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>0.42304879426956099</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>0.39225998520851102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="N12" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>0.71507012844085605</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13">
+        <v>0.68194502592086703</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="N13" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>0.73563683032989502</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14">
+        <v>0.71500056982040405</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="N14" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>552</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N15" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16">
+        <v>0.36602884531021102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16">
+        <v>0.335988849401474</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>0.194100767374038</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17">
+        <v>0.15023645758628801</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N17" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18">
+        <v>0.345112085342407</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18">
+        <v>0.22174677252769401</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N18" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19">
+        <v>0.29161602258682201</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19">
+        <v>0.21030798554420399</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N19" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20">
+        <v>0.68547272682189897</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20">
+        <v>0.68547272682189897</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N20" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21">
+        <v>0.60120487213134699</v>
+      </c>
+      <c r="E21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21">
+        <v>0.50384902954101496</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N21" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22">
+        <v>0.51337993144989003</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22">
+        <v>0.46081072092056202</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N22" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23">
+        <v>0.47779613733291598</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23">
+        <v>0.42838799953460599</v>
+      </c>
+      <c r="I23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N23" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24">
+        <v>0.63203704357147195</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24">
+        <v>0.50311440229415805</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N24" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25">
+        <v>0.50406891107559204</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25">
+        <v>0.44374957680702198</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N25" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26">
+        <v>0.59561842679977395</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>0.58434641361236495</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="N26" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27">
+        <v>0.79503822326660101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27">
+        <v>0.62956398725509599</v>
+      </c>
+      <c r="I27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N27" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28">
+        <v>0.60206562280654896</v>
+      </c>
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28">
+        <v>0.57932126522064198</v>
+      </c>
+      <c r="I28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="N28" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29">
+        <v>0.42627602815628002</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>0.42378944158553999</v>
+      </c>
+      <c r="I29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" t="s">
+        <v>179</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N29" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30">
+        <v>0.56117975711822499</v>
+      </c>
+      <c r="E30" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30">
+        <v>0.53399181365966797</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N30" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31">
+        <v>0.49398511648178101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31">
+        <v>0.45711231231689398</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="N31" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32">
+        <v>0.66742324829101496</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32">
+        <v>0.6565523147583</v>
+      </c>
+      <c r="I32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="N32" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33">
+        <v>0.52519047260284402</v>
+      </c>
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33">
+        <v>0.393561661243438</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>267</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N33" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34">
+        <v>0.42760860919952298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34">
+        <v>0.14675998687744099</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" t="s">
+        <v>154</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N34" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="D35">
+        <v>0.42140671610832198</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35">
+        <v>0.378599792718887</v>
+      </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="N35" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36">
+        <v>0.39401054382324202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36">
+        <v>0.37990546226501398</v>
+      </c>
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K36" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="M36" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N36" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37">
+        <v>0.25410389900207497</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H37">
+        <v>0.249608069658279</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N37" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38">
+        <v>0.41584986448287897</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38">
+        <v>0.32325223088264399</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N38" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39">
+        <v>0.55626451969146695</v>
+      </c>
+      <c r="E39" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>304</v>
+      </c>
+      <c r="H39">
+        <v>0.35149055719375599</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N39" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40">
+        <v>0.64105558395385698</v>
+      </c>
+      <c r="E40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40">
+        <v>0.59942275285720803</v>
+      </c>
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N40" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" t="s">
+        <v>553</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N41" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42">
+        <v>0.82653319835662797</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>0.53312790393829301</v>
+      </c>
+      <c r="I42" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="N42" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43">
+        <v>0.55493414402008001</v>
+      </c>
+      <c r="E43" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" t="s">
+        <v>323</v>
+      </c>
+      <c r="H43">
+        <v>0.42978382110595698</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N43" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" t="s">
+        <v>554</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="M44" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N44" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45">
+        <v>0.55864137411117498</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45">
+        <v>0.55194401741027799</v>
+      </c>
+      <c r="I45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M45" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N45" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46">
+        <v>0.34660831093788103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>345</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>347</v>
+      </c>
+      <c r="H46">
+        <v>0.30310851335525502</v>
+      </c>
+      <c r="I46" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="M46" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N46" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47">
+        <v>0.38377398252487099</v>
+      </c>
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47">
+        <v>0.1704081594944</v>
+      </c>
+      <c r="I47" t="s">
+        <v>305</v>
+      </c>
+      <c r="J47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M47" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N47" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48">
+        <v>0.45806452631950301</v>
+      </c>
+      <c r="E48" t="s">
+        <v>356</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>358</v>
+      </c>
+      <c r="H48">
+        <v>0.45752757787704401</v>
+      </c>
+      <c r="I48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N48" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49">
+        <v>0.55143451690673795</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49">
+        <v>0.53677117824554399</v>
+      </c>
+      <c r="I49" t="s">
+        <v>193</v>
+      </c>
+      <c r="J49" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" t="s">
+        <v>195</v>
+      </c>
+      <c r="L49" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="M49" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="N49" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50">
+        <v>0.65073442459106401</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>0.58991420269012396</v>
+      </c>
+      <c r="I50" t="s">
+        <v>193</v>
+      </c>
+      <c r="J50" t="s">
+        <v>194</v>
+      </c>
+      <c r="K50" t="s">
+        <v>195</v>
+      </c>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="N50" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51">
+        <v>0.61010813713073697</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" t="s">
+        <v>267</v>
+      </c>
+      <c r="H51">
+        <v>0.265817821025848</v>
+      </c>
+      <c r="I51" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" t="s">
+        <v>306</v>
+      </c>
+      <c r="K51" t="s">
+        <v>307</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N51" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52">
+        <v>0.55732369422912598</v>
+      </c>
+      <c r="E52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" t="s">
+        <v>341</v>
+      </c>
+      <c r="H52">
+        <v>0.51997935771942105</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="N52" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D53">
+        <v>0.156530171632766</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53">
+        <v>0.13796539604663799</v>
+      </c>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" t="s">
+        <v>120</v>
+      </c>
+      <c r="K53" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="N53" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54">
+        <v>0.50561475753784102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>287</v>
+      </c>
+      <c r="F54" t="s">
+        <v>288</v>
+      </c>
+      <c r="G54" t="s">
+        <v>289</v>
+      </c>
+      <c r="H54">
+        <v>0.43223923444747903</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="s">
+        <v>288</v>
+      </c>
+      <c r="K54" t="s">
+        <v>385</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M54" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N54" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>0.62599003314971902</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>0.594202280044555</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="M55" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N55" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56">
+        <v>0.75824147462844804</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <v>0.75677907466888406</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N56" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>0.79410052299499501</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57">
+        <v>0.57815521955490101</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" t="s">
+        <v>40</v>
+      </c>
+      <c r="L57" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N57" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58">
+        <v>0.73842036724090498</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58">
+        <v>0.65219819545745805</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N58" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>350</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" t="s">
+        <v>548</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N59" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C60" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G60" t="s">
+        <v>549</v>
+      </c>
+      <c r="L60" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N60" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C61" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G61" t="s">
+        <v>550</v>
+      </c>
+      <c r="L61" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="M61" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N61" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62" s="32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C62" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62">
+        <v>0.42999994754791199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62">
+        <v>0.39352861046790999</v>
+      </c>
+      <c r="I62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="N62" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B63" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C63" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G63" t="s">
+        <v>551</v>
+      </c>
+      <c r="L63" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="M63" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N63" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C64" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64">
+        <v>0.42304879426956099</v>
+      </c>
+      <c r="E64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64">
+        <v>0.39225998520851102</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="N64" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C65" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65">
+        <v>0.71507012844085605</v>
+      </c>
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65">
+        <v>0.68194502592086703</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+      <c r="K65" t="s">
+        <v>99</v>
+      </c>
+      <c r="L65" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="M65" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="N65" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C66" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66">
+        <v>0.73563683032989502</v>
+      </c>
+      <c r="E66" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66">
+        <v>0.71500056982040405</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+      <c r="K66" t="s">
+        <v>105</v>
+      </c>
+      <c r="L66" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M66" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="N66" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B67" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C67" s="32" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" t="s">
+        <v>552</v>
+      </c>
+      <c r="L67" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="M67" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N67" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C68" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68">
+        <v>0.194100767374038</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G68" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68">
+        <v>0.15023645758628801</v>
+      </c>
+      <c r="I68" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68" t="s">
+        <v>134</v>
+      </c>
+      <c r="L68" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N68" s="32" t="b">
+        <f t="shared" ref="N68:N128" si="1">OR(ISBLANK(L68), OR(LOWER(TRIM(L68))=LOWER(TRIM(F68)), LOWER(TRIM(L68))=LOWER(TRIM(J68))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B69" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C69" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69">
+        <v>0.345112085342407</v>
+      </c>
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" t="s">
+        <v>139</v>
+      </c>
+      <c r="H69">
+        <v>0.22174677252769401</v>
+      </c>
+      <c r="I69" t="s">
+        <v>145</v>
+      </c>
+      <c r="J69" t="s">
+        <v>146</v>
+      </c>
+      <c r="K69" t="s">
+        <v>147</v>
+      </c>
+      <c r="L69" s="33" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M69" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N69" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B70" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C70" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70">
+        <v>0.29161602258682201</v>
+      </c>
+      <c r="E70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G70" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70">
+        <v>0.21030798554420399</v>
+      </c>
+      <c r="I70" t="s">
+        <v>145</v>
+      </c>
+      <c r="J70" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70" t="s">
+        <v>147</v>
+      </c>
+      <c r="L70" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="M70" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N70" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C71" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71">
+        <v>0.60120487213134699</v>
+      </c>
+      <c r="E71" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71">
+        <v>0.50384902954101496</v>
+      </c>
+      <c r="I71" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L71" s="33" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="M71" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N71" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B72" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C72" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72">
+        <v>0.51337993144989003</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="G72" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72">
+        <v>0.46081072092056202</v>
+      </c>
+      <c r="I72" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72" t="s">
+        <v>167</v>
+      </c>
+      <c r="K72" t="s">
+        <v>168</v>
+      </c>
+      <c r="L72" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="M72" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N72" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B73" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C73" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73">
+        <v>0.47779613733291598</v>
+      </c>
+      <c r="E73" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73">
+        <v>0.42838799953460599</v>
+      </c>
+      <c r="I73" t="s">
+        <v>157</v>
+      </c>
+      <c r="J73" t="s">
+        <v>158</v>
+      </c>
+      <c r="K73" t="s">
+        <v>159</v>
+      </c>
+      <c r="L73" s="33" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="M73" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N73" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C74" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74">
+        <v>0.63203704357147195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="G74" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74">
+        <v>0.50311440229415805</v>
+      </c>
+      <c r="I74" t="s">
+        <v>166</v>
+      </c>
+      <c r="J74" t="s">
+        <v>167</v>
+      </c>
+      <c r="K74" t="s">
+        <v>168</v>
+      </c>
+      <c r="L74" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="M74" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="N74" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B75" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C75" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75">
+        <v>0.50406891107559204</v>
+      </c>
+      <c r="E75" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="G75" t="s">
+        <v>168</v>
+      </c>
+      <c r="H75">
+        <v>0.44374957680702198</v>
+      </c>
+      <c r="I75" t="s">
+        <v>166</v>
+      </c>
+      <c r="J75" t="s">
+        <v>178</v>
+      </c>
+      <c r="K75" t="s">
+        <v>179</v>
+      </c>
+      <c r="L75" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M75" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N75" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76">
+        <v>0.42627602815628002</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76">
+        <v>0.42378944158553999</v>
+      </c>
+      <c r="I76" t="s">
+        <v>166</v>
+      </c>
+      <c r="J76" t="s">
+        <v>178</v>
+      </c>
+      <c r="K76" t="s">
+        <v>179</v>
+      </c>
+      <c r="L76" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="M76" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N76" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77">
+        <v>0.56117975711822499</v>
+      </c>
+      <c r="E77" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" t="s">
+        <v>232</v>
+      </c>
+      <c r="G77" t="s">
+        <v>233</v>
+      </c>
+      <c r="H77">
+        <v>0.53399181365966797</v>
+      </c>
+      <c r="I77" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" t="s">
+        <v>133</v>
+      </c>
+      <c r="K77" t="s">
+        <v>134</v>
+      </c>
+      <c r="L77" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M77" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N77" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78">
+        <v>0.49398511648178101</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
+      <c r="F78" t="s">
+        <v>238</v>
+      </c>
+      <c r="G78" t="s">
+        <v>239</v>
+      </c>
+      <c r="H78">
+        <v>0.45711231231689398</v>
+      </c>
+      <c r="I78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J78" t="s">
+        <v>241</v>
+      </c>
+      <c r="K78" t="s">
+        <v>242</v>
+      </c>
+      <c r="L78" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M78" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="N78" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79">
+        <v>0.66742324829101496</v>
+      </c>
+      <c r="E79" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G79" t="s">
+        <v>258</v>
+      </c>
+      <c r="H79">
+        <v>0.6565523147583</v>
+      </c>
+      <c r="I79" t="s">
+        <v>259</v>
+      </c>
+      <c r="J79" t="s">
+        <v>260</v>
+      </c>
+      <c r="K79" t="s">
+        <v>261</v>
+      </c>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="N79" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80">
+        <v>0.52519047260284402</v>
+      </c>
+      <c r="E80" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" t="s">
+        <v>265</v>
+      </c>
+      <c r="G80" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80">
+        <v>0.393561661243438</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" t="s">
+        <v>267</v>
+      </c>
+      <c r="K80" t="s">
+        <v>267</v>
+      </c>
+      <c r="L80" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M80" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N80" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="D81">
+        <v>0.42140671610832198</v>
+      </c>
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81">
+        <v>0.378599792718887</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+      <c r="K81" t="s">
+        <v>109</v>
+      </c>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="N81" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82">
+        <v>0.25410389900207497</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>267</v>
+      </c>
+      <c r="G82" t="s">
+        <v>267</v>
+      </c>
+      <c r="H82">
+        <v>0.249608069658279</v>
+      </c>
+      <c r="I82" t="s">
+        <v>292</v>
+      </c>
+      <c r="J82" t="s">
+        <v>293</v>
+      </c>
+      <c r="K82" t="s">
+        <v>294</v>
+      </c>
+      <c r="L82" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="M82" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N82" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83">
+        <v>0.41584986448287897</v>
+      </c>
+      <c r="E83" t="s">
+        <v>193</v>
+      </c>
+      <c r="F83" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83" t="s">
+        <v>195</v>
+      </c>
+      <c r="H83">
+        <v>0.32325223088264399</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="M83" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N83" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D84">
+        <v>0.55626451969146695</v>
+      </c>
+      <c r="E84" t="s">
+        <v>302</v>
+      </c>
+      <c r="F84" t="s">
+        <v>303</v>
+      </c>
+      <c r="G84" t="s">
+        <v>304</v>
+      </c>
+      <c r="H84">
+        <v>0.35149055719375599</v>
+      </c>
+      <c r="I84" t="s">
+        <v>276</v>
+      </c>
+      <c r="J84" t="s">
+        <v>277</v>
+      </c>
+      <c r="K84" t="s">
+        <v>278</v>
+      </c>
+      <c r="L84" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="M84" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N84" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D85">
+        <v>0.64105558395385698</v>
+      </c>
+      <c r="E85" t="s">
+        <v>219</v>
+      </c>
+      <c r="F85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G85" t="s">
+        <v>221</v>
+      </c>
+      <c r="H85">
+        <v>0.59942275285720803</v>
+      </c>
+      <c r="I85" t="s">
+        <v>311</v>
+      </c>
+      <c r="J85" t="s">
+        <v>312</v>
+      </c>
+      <c r="K85" t="s">
+        <v>313</v>
+      </c>
+      <c r="L85" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="M85" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N85" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>553</v>
+      </c>
+      <c r="L86" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="M86" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N86" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D87">
+        <v>0.55493414402008001</v>
+      </c>
+      <c r="E87" t="s">
+        <v>321</v>
+      </c>
+      <c r="F87" t="s">
+        <v>322</v>
+      </c>
+      <c r="G87" t="s">
+        <v>323</v>
+      </c>
+      <c r="H87">
+        <v>0.42978382110595698</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="M87" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N87" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" t="s">
+        <v>554</v>
+      </c>
+      <c r="L88" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="M88" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N88" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D89">
+        <v>0.55864137411117498</v>
+      </c>
+      <c r="E89" t="s">
+        <v>145</v>
+      </c>
+      <c r="F89" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89">
+        <v>0.55194401741027799</v>
+      </c>
+      <c r="I89" t="s">
+        <v>137</v>
+      </c>
+      <c r="J89" t="s">
+        <v>138</v>
+      </c>
+      <c r="K89" t="s">
+        <v>139</v>
+      </c>
+      <c r="L89" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M89" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N89" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D90">
+        <v>0.55143451690673795</v>
+      </c>
+      <c r="E90" t="s">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>90</v>
+      </c>
+      <c r="H90">
+        <v>0.53677117824554399</v>
+      </c>
+      <c r="I90" t="s">
+        <v>193</v>
+      </c>
+      <c r="J90" t="s">
+        <v>194</v>
+      </c>
+      <c r="K90" t="s">
+        <v>195</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="M90" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="N90" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D91">
+        <v>0.61010813713073697</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>267</v>
+      </c>
+      <c r="G91" t="s">
+        <v>267</v>
+      </c>
+      <c r="H91">
+        <v>0.265817821025848</v>
+      </c>
+      <c r="I91" t="s">
+        <v>305</v>
+      </c>
+      <c r="J91" t="s">
+        <v>306</v>
+      </c>
+      <c r="K91" t="s">
+        <v>307</v>
+      </c>
+      <c r="L91" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M91" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N91" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92">
+        <v>0.55732369422912598</v>
+      </c>
+      <c r="E92" t="s">
+        <v>339</v>
+      </c>
+      <c r="F92" t="s">
+        <v>340</v>
+      </c>
+      <c r="G92" t="s">
+        <v>341</v>
+      </c>
+      <c r="H92">
+        <v>0.51997935771942105</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" t="s">
+        <v>99</v>
+      </c>
+      <c r="K92" t="s">
+        <v>99</v>
+      </c>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="N92" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D93">
+        <v>0.156530171632766</v>
+      </c>
+      <c r="E93" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" t="s">
+        <v>117</v>
+      </c>
+      <c r="G93" t="s">
+        <v>118</v>
+      </c>
+      <c r="H93">
+        <v>0.13796539604663799</v>
+      </c>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+      <c r="J93" t="s">
+        <v>120</v>
+      </c>
+      <c r="K93" t="s">
+        <v>121</v>
+      </c>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="N93" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D94">
+        <v>0.700153827667236</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>267</v>
+      </c>
+      <c r="G94" t="s">
+        <v>267</v>
+      </c>
+      <c r="H94">
+        <v>0.55972063541412298</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" t="s">
+        <v>154</v>
+      </c>
+      <c r="K94" t="s">
+        <v>154</v>
+      </c>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="N94" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G95" t="s">
+        <v>551</v>
+      </c>
+      <c r="L95" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="M95" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N95" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>79</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>555</v>
+      </c>
+      <c r="L96" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N96" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D97">
+        <v>0.353088438510894</v>
+      </c>
+      <c r="E97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97">
+        <v>0.30512011051177901</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" t="s">
+        <v>267</v>
+      </c>
+      <c r="K97" t="s">
+        <v>267</v>
+      </c>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D98">
+        <v>0.84470754861831598</v>
+      </c>
+      <c r="E98" t="s">
+        <v>163</v>
+      </c>
+      <c r="F98" t="s">
+        <v>164</v>
+      </c>
+      <c r="G98" t="s">
+        <v>165</v>
+      </c>
+      <c r="H98">
+        <v>0.74731129407882602</v>
+      </c>
+      <c r="I98" t="s">
+        <v>186</v>
+      </c>
+      <c r="J98" t="s">
+        <v>187</v>
+      </c>
+      <c r="K98" t="s">
+        <v>188</v>
+      </c>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>478</v>
+      </c>
+      <c r="F99" t="s">
+        <v>477</v>
+      </c>
+      <c r="G99" t="s">
+        <v>556</v>
+      </c>
+      <c r="L99" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="M99" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N99" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="D100">
+        <v>0.70843333005905096</v>
+      </c>
+      <c r="E100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F100" t="s">
+        <v>164</v>
+      </c>
+      <c r="G100" t="s">
+        <v>165</v>
+      </c>
+      <c r="H100">
+        <v>0.70198929309844904</v>
+      </c>
+      <c r="I100" t="s">
+        <v>171</v>
+      </c>
+      <c r="J100" t="s">
+        <v>172</v>
+      </c>
+      <c r="K100" t="s">
+        <v>173</v>
+      </c>
+      <c r="L100" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="M100" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N100" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="D101">
+        <v>0.80205559730529696</v>
+      </c>
+      <c r="E101" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G101" t="s">
+        <v>97</v>
+      </c>
+      <c r="H101">
+        <v>0.79721760749816895</v>
+      </c>
+      <c r="I101" t="s">
+        <v>55</v>
+      </c>
+      <c r="J101" t="s">
+        <v>56</v>
+      </c>
+      <c r="K101" t="s">
+        <v>57</v>
+      </c>
+      <c r="L101" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M101" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N101" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="D102">
+        <v>0.83933794498443604</v>
+      </c>
+      <c r="E102" t="s">
+        <v>488</v>
+      </c>
+      <c r="F102" t="s">
+        <v>489</v>
+      </c>
+      <c r="G102" t="s">
+        <v>490</v>
+      </c>
+      <c r="H102">
+        <v>0.83321905136108398</v>
+      </c>
+      <c r="I102" t="s">
+        <v>102</v>
+      </c>
+      <c r="J102" t="s">
+        <v>103</v>
+      </c>
+      <c r="K102" t="s">
+        <v>104</v>
+      </c>
+      <c r="L102" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="M102" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N102" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" t="s">
+        <v>552</v>
+      </c>
+      <c r="L103" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="M103" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N103" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" t="s">
+        <v>117</v>
+      </c>
+      <c r="G104" t="s">
+        <v>557</v>
+      </c>
+      <c r="L104" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M104" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N104" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105">
+        <v>0.75641298294067305</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H105">
+        <v>0.69178062677383401</v>
+      </c>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+      <c r="J105" t="s">
+        <v>141</v>
+      </c>
+      <c r="K105" t="s">
+        <v>142</v>
+      </c>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="N105" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="D106">
+        <v>0.81662058830261197</v>
+      </c>
+      <c r="E106" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106">
+        <v>0.74956673383712702</v>
+      </c>
+      <c r="I106" t="s">
+        <v>55</v>
+      </c>
+      <c r="J106" t="s">
+        <v>56</v>
+      </c>
+      <c r="K106" t="s">
+        <v>57</v>
+      </c>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="N106" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D107">
+        <v>0.85489153861999501</v>
+      </c>
+      <c r="E107" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" t="s">
+        <v>164</v>
+      </c>
+      <c r="G107" t="s">
+        <v>165</v>
+      </c>
+      <c r="H107">
+        <v>0.77131080627441395</v>
+      </c>
+      <c r="I107" t="s">
+        <v>186</v>
+      </c>
+      <c r="J107" t="s">
+        <v>187</v>
+      </c>
+      <c r="K107" t="s">
+        <v>188</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="M107" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="N107" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="D108">
+        <v>0.78535550832748402</v>
+      </c>
+      <c r="E108" t="s">
+        <v>237</v>
+      </c>
+      <c r="F108" t="s">
+        <v>238</v>
+      </c>
+      <c r="G108" t="s">
+        <v>239</v>
+      </c>
+      <c r="H108">
+        <v>0.71959239244461004</v>
+      </c>
+      <c r="I108" t="s">
+        <v>163</v>
+      </c>
+      <c r="J108" t="s">
+        <v>164</v>
+      </c>
+      <c r="K108" t="s">
+        <v>165</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="M108" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N108" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109">
+        <v>0.65091514587402299</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109">
+        <v>0.62362813949584905</v>
+      </c>
+      <c r="I109" t="s">
+        <v>193</v>
+      </c>
+      <c r="J109" t="s">
+        <v>194</v>
+      </c>
+      <c r="K109" t="s">
+        <v>195</v>
+      </c>
+      <c r="L109" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="M109" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="N109" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="D110">
+        <v>0.59798026084899902</v>
+      </c>
+      <c r="E110" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" t="s">
+        <v>112</v>
+      </c>
+      <c r="G110" t="s">
+        <v>113</v>
+      </c>
+      <c r="H110">
+        <v>0.56056964397430398</v>
+      </c>
+      <c r="I110" t="s">
+        <v>108</v>
+      </c>
+      <c r="J110" t="s">
+        <v>107</v>
+      </c>
+      <c r="K110" t="s">
+        <v>109</v>
+      </c>
+      <c r="L110" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>497</v>
+      </c>
+      <c r="F111" t="s">
+        <v>496</v>
+      </c>
+      <c r="G111" t="s">
+        <v>556</v>
+      </c>
+      <c r="L111" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="M111" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N111" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D112">
+        <v>0.86547523736953702</v>
+      </c>
+      <c r="E112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F112" t="s">
+        <v>187</v>
+      </c>
+      <c r="G112" t="s">
+        <v>188</v>
+      </c>
+      <c r="H112">
+        <v>0.72085428237914995</v>
+      </c>
+      <c r="I112" t="s">
+        <v>497</v>
+      </c>
+      <c r="J112" t="s">
+        <v>496</v>
+      </c>
+      <c r="K112" t="s">
+        <v>498</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="M112" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N112" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D113">
+        <v>0.83245372772216797</v>
+      </c>
+      <c r="E113" t="s">
+        <v>200</v>
+      </c>
+      <c r="F113" t="s">
+        <v>201</v>
+      </c>
+      <c r="G113" t="s">
+        <v>202</v>
+      </c>
+      <c r="H113">
+        <v>0.69018673896789495</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113" t="s">
+        <v>45</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="M113" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="N113" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D114">
+        <v>0.65366339683532704</v>
+      </c>
+      <c r="E114" t="s">
+        <v>219</v>
+      </c>
+      <c r="F114" t="s">
+        <v>220</v>
+      </c>
+      <c r="G114" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114">
+        <v>0.543326675891876</v>
+      </c>
+      <c r="I114" t="s">
+        <v>504</v>
+      </c>
+      <c r="J114" t="s">
+        <v>505</v>
+      </c>
+      <c r="K114" t="s">
+        <v>506</v>
+      </c>
+      <c r="L114" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="M114" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="N114" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" t="s">
+        <v>265</v>
+      </c>
+      <c r="G115" t="s">
+        <v>558</v>
+      </c>
+      <c r="L115" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M115" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N115" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>132</v>
+      </c>
+      <c r="F116" t="s">
+        <v>133</v>
+      </c>
+      <c r="G116" t="s">
+        <v>559</v>
+      </c>
+      <c r="L116" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="M116" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N116" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G117" t="s">
+        <v>553</v>
+      </c>
+      <c r="L117" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="M117" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N117" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D118">
+        <v>0.55493414402008001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>321</v>
+      </c>
+      <c r="F118" t="s">
+        <v>322</v>
+      </c>
+      <c r="G118" t="s">
+        <v>323</v>
+      </c>
+      <c r="H118">
+        <v>0.42978382110595698</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="M118" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N118" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119" t="s">
+        <v>70</v>
+      </c>
+      <c r="G119" t="s">
+        <v>554</v>
+      </c>
+      <c r="L119" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="M119" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N119" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>145</v>
+      </c>
+      <c r="F120" t="s">
+        <v>146</v>
+      </c>
+      <c r="G120" t="s">
+        <v>560</v>
+      </c>
+      <c r="L120" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M120" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N120" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" t="s">
+        <v>232</v>
+      </c>
+      <c r="G121" t="s">
+        <v>561</v>
+      </c>
+      <c r="L121" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M121" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N121" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122">
+        <v>0.82588690519332797</v>
+      </c>
+      <c r="E122" t="s">
+        <v>205</v>
+      </c>
+      <c r="F122" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>458</v>
-      </c>
-      <c r="B28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>246</v>
-      </c>
-      <c r="B30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>284</v>
-      </c>
-      <c r="B35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>290</v>
-      </c>
-      <c r="B36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>297</v>
-      </c>
-      <c r="B37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>308</v>
-      </c>
-      <c r="B39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>462</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>319</v>
-      </c>
-      <c r="B42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>325</v>
-      </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>329</v>
-      </c>
-      <c r="B44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>348</v>
-      </c>
-      <c r="B46" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>354</v>
-      </c>
-      <c r="B47" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B48" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>374</v>
-      </c>
-      <c r="B50" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>382</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="G122" t="s">
+        <v>207</v>
+      </c>
+      <c r="H122">
+        <v>0.75547999143600397</v>
+      </c>
+      <c r="I122" t="s">
+        <v>127</v>
+      </c>
+      <c r="J122" t="s">
+        <v>128</v>
+      </c>
+      <c r="K122" t="s">
+        <v>129</v>
+      </c>
+      <c r="L122" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="M122" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N122" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="D123">
+        <v>0.73872399330139105</v>
+      </c>
+      <c r="E123" t="s">
+        <v>384</v>
+      </c>
+      <c r="F123" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>468</v>
-      </c>
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>469</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>470</v>
-      </c>
-      <c r="B56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>361</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="G123" t="s">
+        <v>385</v>
+      </c>
+      <c r="H123">
+        <v>0.73099803924560502</v>
+      </c>
+      <c r="I123" t="s">
+        <v>356</v>
+      </c>
+      <c r="J123" t="s">
+        <v>357</v>
+      </c>
+      <c r="K123" t="s">
+        <v>358</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="M123" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N123" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B124" s="32" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C124" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D124">
+        <v>0.77099502086639404</v>
+      </c>
+      <c r="E124" t="s">
+        <v>478</v>
+      </c>
+      <c r="F124" t="s">
         <v>477</v>
       </c>
-      <c r="B64" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>483</v>
-      </c>
-      <c r="B65" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>484</v>
-      </c>
-      <c r="B66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>486</v>
-      </c>
-      <c r="B67" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>493</v>
-      </c>
-      <c r="B72" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>494</v>
-      </c>
-      <c r="B73" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B74" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>496</v>
-      </c>
-      <c r="B76" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>501</v>
-      </c>
-      <c r="B77" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>253</v>
-      </c>
-      <c r="B78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>502</v>
-      </c>
-      <c r="B79" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>265</v>
-      </c>
-      <c r="B80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>507</v>
-      </c>
-      <c r="B83" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>232</v>
-      </c>
-      <c r="B86" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>508</v>
-      </c>
-      <c r="B87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>509</v>
-      </c>
-      <c r="B88" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="G124" t="s">
+        <v>479</v>
+      </c>
+      <c r="H124">
+        <v>0.73225378990173295</v>
+      </c>
+      <c r="I124" t="s">
+        <v>511</v>
+      </c>
+      <c r="J124" t="s">
+        <v>512</v>
+      </c>
+      <c r="K124" t="s">
+        <v>513</v>
+      </c>
+      <c r="L124" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B89" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="M124" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="N124" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B125" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C125" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="D125">
+        <v>0.64421898126602095</v>
+      </c>
+      <c r="E125" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" t="s">
+        <v>50</v>
+      </c>
+      <c r="G125" t="s">
+        <v>53</v>
+      </c>
+      <c r="H125">
+        <v>0.57671648263931197</v>
+      </c>
+      <c r="I125" t="s">
+        <v>240</v>
+      </c>
+      <c r="J125" t="s">
+        <v>241</v>
+      </c>
+      <c r="K125" t="s">
+        <v>242</v>
+      </c>
+      <c r="L125" s="17" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="M125" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N125" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B126" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C126" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D126">
+        <v>0.61224997043609597</v>
+      </c>
+      <c r="E126" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" t="s">
+        <v>50</v>
+      </c>
+      <c r="G126" t="s">
+        <v>53</v>
+      </c>
+      <c r="H126">
+        <v>0.55608248710632302</v>
+      </c>
+      <c r="I126" t="s">
+        <v>240</v>
+      </c>
+      <c r="J126" t="s">
+        <v>241</v>
+      </c>
+      <c r="K126" t="s">
+        <v>242</v>
+      </c>
+      <c r="L126" s="17" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="M126" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N126" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B127" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C127" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="D127">
+        <v>0.866729736328125</v>
+      </c>
+      <c r="E127" t="s">
+        <v>88</v>
+      </c>
+      <c r="F127" t="s">
+        <v>91</v>
+      </c>
+      <c r="G127" t="s">
+        <v>92</v>
+      </c>
+      <c r="H127">
+        <v>0.84285736083984297</v>
+      </c>
+      <c r="I127" t="s">
+        <v>88</v>
+      </c>
+      <c r="J127" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="K127" t="s">
+        <v>90</v>
+      </c>
+      <c r="L127" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M127" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N127" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C128" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="D128">
+        <v>0.81641572713851895</v>
+      </c>
+      <c r="E128" t="s">
+        <v>166</v>
+      </c>
+      <c r="F128" t="s">
+        <v>167</v>
+      </c>
+      <c r="G128" t="s">
+        <v>168</v>
+      </c>
+      <c r="H128">
+        <v>0.79550713300704901</v>
+      </c>
+      <c r="I128" t="s">
+        <v>166</v>
+      </c>
+      <c r="J128" t="s">
         <v>178</v>
       </c>
+      <c r="K128" t="s">
+        <v>179</v>
+      </c>
+      <c r="L128" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M128" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="N128" s="32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B93" xr:uid="{8FF100EF-9871-4F24-86C5-BB92AC616A94}"/>
+  <autoFilter ref="A2:N128" xr:uid="{578F4BE2-79B7-40DE-B42D-54301EBC58E6}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2 B115:B128">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>